--- a/학습자료/단답형/오답노트/오답노트_무한반복_단답형_객관식_삼국시대_연도(왕)_통일신라.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_단답형_객관식_삼국시대_연도(왕)_통일신라.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -757,24 +757,120 @@
 3. 911년 : 경명왕</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
+      <c r="B14" t="n">
+        <v>13</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
           <t>1, 896년 : 효공왕</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>20221206</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>09</t>
+      <c r="D14" t="n">
+        <v>20221206</v>
+      </c>
+      <c r="E14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>통일신라 김지정의 난 발발
+1. 771년 : 혜공왕
+2. 846년 : 진성여왕
+3. 732년 : 성덕왕</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>3</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1, 771년 : 혜공왕</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>20221207</v>
+      </c>
+      <c r="E15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>통일신라 녹읍 폐지
+1. 689년 : 신문왕
+2. 687년 : 신문왕
+3. 792년 : 소성왕</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2, 687년 : 신문왕</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>20221207</v>
+      </c>
+      <c r="E16" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>견훤 후백제 건국
+1. 689년 : 신문왕
+2. 897년 : 효공왕
+3. 901년 : 효공왕</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2, 897년 : 효공왕</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>20221207</v>
+      </c>
+      <c r="E17" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>통일신라 발해와 쟁장 사건
+1. 896년 : 효공왕
+2. 684년 : 신문왕
+3. 911년 : 경명왕</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1, 896년 : 효공왕</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>20221207</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>11</t>
         </is>
       </c>
     </row>
